--- a/docs/CDM-manual/tables/grids.xlsx
+++ b/docs/CDM-manual/tables/grids.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00065525\Github\CDM\docs\CDM-manual\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5975C7A-7802-4AA3-AB4C-3583BEE5F358}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050BDF99-296C-4DD8-A0BE-494C83E981F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2505" yWindow="6360" windowWidth="21600" windowHeight="11505" xr2:uid="{9F6984DF-23CA-4E74-AA9C-CEB0E09C04EE}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11505" xr2:uid="{9F6984DF-23CA-4E74-AA9C-CEB0E09C04EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,19 +59,19 @@
     <t>Data</t>
   </si>
   <si>
-    <t>HCHB</t>
-  </si>
-  <si>
     <t>CoorongBGC_mesh_000.2dm</t>
   </si>
   <si>
-    <t>Rapid</t>
-  </si>
-  <si>
     <t>A10583_Coorong_fast_010.2dm</t>
   </si>
   <si>
     <t>Number of Cells</t>
+  </si>
+  <si>
+    <t>HCHB: Fine</t>
+  </si>
+  <si>
+    <t>HCHB: Coarse</t>
   </si>
 </sst>
 </file>
@@ -426,7 +426,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:H2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,7 +451,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -471,10 +471,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
       </c>
       <c r="D2">
         <v>26250</v>
@@ -497,10 +497,10 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3">
         <v>2202</v>
